--- a/src/test/resources/LoginList.xlsx
+++ b/src/test/resources/LoginList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihsan\IdeaProjects\EuroTech_Batch8_Selenium_TestNG\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Belgelerim\IdeaProjects\Batch19_Selenium_TestNG_IY\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1464E4A5-53E4-4DCB-B22A-7F92F8474D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="QaTeam2" sheetId="2" r:id="rId3"/>
     <sheet name="QaTeam3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
   <si>
     <t>Your Name</t>
   </si>
@@ -325,12 +324,18 @@
   </si>
   <si>
     <t>school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tülay </t>
+  </si>
+  <si>
+    <t>aeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,7 +420,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -693,22 +698,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241B906-87AB-4B90-99C3-BB6B40C54127}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
@@ -725,7 +730,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -742,7 +747,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -759,7 +764,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -776,7 +781,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -793,7 +798,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -810,7 +815,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -827,7 +832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -844,7 +849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -861,7 +866,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -878,7 +883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -895,7 +900,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -910,6 +915,23 @@
       </c>
       <c r="E12" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -919,22 +941,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -945,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -956,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -967,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -978,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -989,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1033,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1047,11 +1069,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D7C802F7-2716-4A84-A3E7-E0E705A97194}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{95EA960D-2FDC-4AFC-B9A0-97947D048712}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{36141528-4D09-4281-A1E7-F6B5349E3F0C}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{BE9AEEAA-5E5E-4AEC-9E21-7F547D271587}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{F0C29D30-CB2E-48F0-9A5A-D911E6631F42}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1059,21 +1081,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8900292A-4B57-4605-87E6-DEC02E7248D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1117,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1128,7 +1150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1139,7 +1161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1183,7 +1205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -1207,37 +1229,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{93FD74B5-9E66-433C-8609-514BD95D7369}"/>
-    <hyperlink ref="A11" r:id="rId2" xr:uid="{FD62BC61-18EC-4595-955D-889BFF780C4A}"/>
-    <hyperlink ref="A10" r:id="rId3" xr:uid="{D37ACDF2-7C15-445F-974D-EACFA2677493}"/>
-    <hyperlink ref="A9" r:id="rId4" xr:uid="{D84E594C-CBB3-4639-BA3B-61799A75C92A}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{DE543C11-D5BC-4198-9A24-B13C0A7E317F}"/>
-    <hyperlink ref="A3" r:id="rId6" xr:uid="{1F8A8DE5-E5A6-4D4C-BC2F-A08EB9B18E26}"/>
-    <hyperlink ref="A2" r:id="rId7" xr:uid="{4F50FBB7-6A4F-4A03-A169-C16FEB8E65C1}"/>
+    <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D8DB64-3C2D-4923-B33A-9078A63670CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +1288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1353,7 +1375,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +1404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1440,7 +1462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +1520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1529,11 +1551,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7C752E4A-B9C6-485B-BA33-A742D29E64AE}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{35C09A7B-D3D8-4A9C-A1BC-B50E0CB82EBB}"/>
-    <hyperlink ref="A8" r:id="rId3" xr:uid="{4D262BE4-5E78-42BF-81CF-011A36FC497C}"/>
-    <hyperlink ref="A9" r:id="rId4" xr:uid="{130743BF-5E7A-4794-9A97-481B6DA957D8}"/>
-    <hyperlink ref="A10" r:id="rId5" xr:uid="{16AE8D42-D171-4F1D-9B4B-24FBB227417C}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
